--- a/24.5.15~24.5.21/演示测试.xlsx
+++ b/24.5.15~24.5.21/演示测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\罗熙项目\毕设\笔记\24.5.15~24.5.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EA668E-D234-4DF8-9E6E-38CFCB739D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF76FBE-23EA-4478-85C4-03D2D3336D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="15">
   <si>
     <t>线程调度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>吞吐量实验，并发度20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞吐量实验，并发度40，修改后不计入创建连接的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞吐量实验，测量10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞吐量实验，并行度40，请求数800，测量10次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -980,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>2.21091498882631</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>1.78673056848987</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>1.76094285106508</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>2.1032929259212798</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1307,6 +1319,426 @@
       </c>
       <c r="Q23">
         <v>1.9396819057452299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="W26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>433.60433604335998</v>
+      </c>
+      <c r="B29">
+        <v>15.0880823386829</v>
+      </c>
+      <c r="G29">
+        <v>2062.4187966786999</v>
+      </c>
+      <c r="H29">
+        <v>203024.35592335</v>
+      </c>
+      <c r="I29">
+        <v>2582.9439700893399</v>
+      </c>
+      <c r="J29">
+        <v>265406.61341341102</v>
+      </c>
+      <c r="L29">
+        <v>2119.33493466148</v>
+      </c>
+      <c r="M29">
+        <v>424217.50323656801</v>
+      </c>
+      <c r="N29">
+        <v>1033.3264163871399</v>
+      </c>
+      <c r="O29">
+        <v>152718.87515927901</v>
+      </c>
+      <c r="Q29">
+        <v>3873.8666353508902</v>
+      </c>
+      <c r="R29">
+        <v>163859.29242233699</v>
+      </c>
+      <c r="S29">
+        <v>4807.0807356177302</v>
+      </c>
+      <c r="T29">
+        <v>14199015.0849771</v>
+      </c>
+      <c r="W29">
+        <v>62415</v>
+      </c>
+      <c r="X29">
+        <v>924847954</v>
+      </c>
+      <c r="Y29">
+        <v>30659.3</v>
+      </c>
+      <c r="Z29">
+        <v>13835908.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>636.80071321679804</v>
+      </c>
+      <c r="B30">
+        <v>1245.7954403886799</v>
+      </c>
+      <c r="G30">
+        <v>1546.5000712665301</v>
+      </c>
+      <c r="H30">
+        <v>65899.944656112493</v>
+      </c>
+      <c r="I30">
+        <v>1963.44746462475</v>
+      </c>
+      <c r="J30">
+        <v>203115.65477635901</v>
+      </c>
+      <c r="L30">
+        <v>2150.1659896081601</v>
+      </c>
+      <c r="M30">
+        <v>382234.00016423798</v>
+      </c>
+      <c r="N30">
+        <v>2392.90822392883</v>
+      </c>
+      <c r="O30">
+        <v>650788.28832143103</v>
+      </c>
+      <c r="Q30">
+        <v>3614.8422427671599</v>
+      </c>
+      <c r="R30">
+        <v>41497.083852475502</v>
+      </c>
+      <c r="S30">
+        <v>5283.8655939192004</v>
+      </c>
+      <c r="T30">
+        <v>6345355.1919393102</v>
+      </c>
+      <c r="W30">
+        <v>54841.4</v>
+      </c>
+      <c r="X30">
+        <v>750660622.43999898</v>
+      </c>
+      <c r="Y30">
+        <v>47157.599999999999</v>
+      </c>
+      <c r="Z30">
+        <v>3627362433.2399998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>632.18118312708395</v>
+      </c>
+      <c r="B31">
+        <v>921.80766483073296</v>
+      </c>
+      <c r="G31">
+        <v>633.86505714814098</v>
+      </c>
+      <c r="H31">
+        <v>8932.9456523221397</v>
+      </c>
+      <c r="I31">
+        <v>1705.99067647743</v>
+      </c>
+      <c r="J31">
+        <v>212649.971371105</v>
+      </c>
+      <c r="L31">
+        <v>2089.80858298253</v>
+      </c>
+      <c r="M31">
+        <v>324835.18864075799</v>
+      </c>
+      <c r="N31">
+        <v>2386.1288279948199</v>
+      </c>
+      <c r="O31">
+        <v>636401.23683854903</v>
+      </c>
+      <c r="Q31">
+        <v>3968.6730514792098</v>
+      </c>
+      <c r="R31">
+        <v>124171.88178558899</v>
+      </c>
+      <c r="S31">
+        <v>7098.6282409887299</v>
+      </c>
+      <c r="T31">
+        <v>3776441.29456111</v>
+      </c>
+      <c r="W31">
+        <v>58458.8</v>
+      </c>
+      <c r="X31">
+        <v>595209591.15999997</v>
+      </c>
+      <c r="Y31">
+        <v>31628</v>
+      </c>
+      <c r="Z31">
+        <v>19663894.199999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1216.50801374654</v>
+      </c>
+      <c r="B32">
+        <v>773.00660920650796</v>
+      </c>
+      <c r="G32">
+        <v>511.77536183255501</v>
+      </c>
+      <c r="H32">
+        <v>9600.1408586964899</v>
+      </c>
+      <c r="I32">
+        <v>1526.6681763402</v>
+      </c>
+      <c r="J32">
+        <v>497977.69515052298</v>
+      </c>
+      <c r="N32">
+        <v>2738.8985576840601</v>
+      </c>
+      <c r="O32">
+        <v>395954.76317263203</v>
+      </c>
+      <c r="Q32">
+        <v>3844.64071589167</v>
+      </c>
+      <c r="R32">
+        <v>320342.21798113198</v>
+      </c>
+      <c r="S32">
+        <v>6045.7976333670003</v>
+      </c>
+      <c r="T32">
+        <v>10141895.085864199</v>
+      </c>
+      <c r="W32">
+        <v>140147.29999999999</v>
+      </c>
+      <c r="X32">
+        <v>52988232379.209999</v>
+      </c>
+      <c r="Y32">
+        <v>32035.200000000001</v>
+      </c>
+      <c r="Z32">
+        <v>109968522.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1296.97480626438</v>
+      </c>
+      <c r="B33">
+        <v>932.640070880645</v>
+      </c>
+      <c r="G33">
+        <v>374.548548155596</v>
+      </c>
+      <c r="H33">
+        <v>4195.4655577665098</v>
+      </c>
+      <c r="I33">
+        <v>1584.43196395732</v>
+      </c>
+      <c r="J33">
+        <v>194849.86638305799</v>
+      </c>
+      <c r="N33">
+        <v>756.39102165924896</v>
+      </c>
+      <c r="O33">
+        <v>1193630.4578797501</v>
+      </c>
+      <c r="Q33">
+        <v>3753.45896581744</v>
+      </c>
+      <c r="R33">
+        <v>397972.90332261898</v>
+      </c>
+      <c r="S33">
+        <v>7004.0523472469504</v>
+      </c>
+      <c r="T33">
+        <v>7029916.8516984098</v>
+      </c>
+      <c r="W33">
+        <v>48416.3</v>
+      </c>
+      <c r="X33">
+        <v>341511295.81</v>
+      </c>
+      <c r="Y33">
+        <v>30815.1</v>
+      </c>
+      <c r="Z33">
+        <v>28785186.689999901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>2200.9636254209599</v>
+      </c>
+      <c r="H34">
+        <v>179404.27840556699</v>
       </c>
     </row>
   </sheetData>
